--- a/app/data/absenteeism_data_28.xlsx
+++ b/app/data/absenteeism_data_28.xlsx
@@ -476,11 +476,11 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>77983</v>
+        <v>83439</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Sarah Mendes</t>
+          <t>Ana Sophia Martins</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -490,84 +490,84 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>45087</v>
+        <v>45102</v>
       </c>
       <c r="G2" t="n">
-        <v>8246.73</v>
+        <v>11872.35</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>79617</v>
+        <v>44412</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Pietro da Cruz</t>
+          <t>Brenda Correia</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>TI</t>
+          <t>Vendas</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>45089</v>
+        <v>45105</v>
       </c>
       <c r="G3" t="n">
-        <v>11961.66</v>
+        <v>5794.94</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>52892</v>
+        <v>37584</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Benício Alves</t>
+          <t>Lavínia Almeida</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>P&amp;D</t>
+          <t>Atendimento ao Cliente</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>45095</v>
+        <v>45082</v>
       </c>
       <c r="G4" t="n">
-        <v>5480.5</v>
+        <v>6774.65</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>18126</v>
+        <v>2821</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Emanuelly Novaes</t>
+          <t>Alexia Cardoso</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -577,60 +577,60 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>45083</v>
+        <v>45090</v>
       </c>
       <c r="G5" t="n">
-        <v>9361.73</v>
+        <v>3943.37</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>18733</v>
+        <v>6810</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Cecília Nogueira</t>
+          <t>Sra. Ana Beatriz Campos</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Atendimento ao Cliente</t>
+          <t>Recursos Humanos</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>45097</v>
+        <v>45087</v>
       </c>
       <c r="G6" t="n">
-        <v>7453.09</v>
+        <v>12079.1</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>98971</v>
+        <v>98571</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Paulo Fogaça</t>
+          <t>Davi Lucas Mendes</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Operações</t>
+          <t>TI</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -639,27 +639,27 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>45099</v>
+        <v>45104</v>
       </c>
       <c r="G7" t="n">
-        <v>7145.91</v>
+        <v>12344.61</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>48777</v>
+        <v>96249</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Luiz Henrique Cunha</t>
+          <t>Sr. Cauê Araújo</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Recursos Humanos</t>
+          <t>Engenharia</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -668,22 +668,22 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>45102</v>
+        <v>45084</v>
       </c>
       <c r="G8" t="n">
-        <v>2877.35</v>
+        <v>12015.67</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>35947</v>
+        <v>34266</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Sra. Elisa Rezende</t>
+          <t>Noah Correia</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -697,71 +697,71 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>45104</v>
+        <v>45089</v>
       </c>
       <c r="G9" t="n">
-        <v>6884.97</v>
+        <v>4883.38</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>32374</v>
+        <v>63204</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Diogo da Rosa</t>
+          <t>Bernardo Lopes</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Financeiro</t>
+          <t>Recursos Humanos</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>45093</v>
+        <v>45104</v>
       </c>
       <c r="G10" t="n">
-        <v>6218.18</v>
+        <v>10240.39</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>82487</v>
+        <v>24020</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Enzo Moraes</t>
+          <t>Alexia Almeida</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Financeiro</t>
+          <t>P&amp;D</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>45080</v>
+        <v>45095</v>
       </c>
       <c r="G11" t="n">
-        <v>3176.72</v>
+        <v>9781.799999999999</v>
       </c>
     </row>
   </sheetData>

--- a/app/data/absenteeism_data_28.xlsx
+++ b/app/data/absenteeism_data_28.xlsx
@@ -476,45 +476,45 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>71905</v>
+        <v>19259</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Bruna Barros</t>
+          <t>Carlos Eduardo Ramos</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Operações</t>
+          <t>P&amp;D</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>45102</v>
+        <v>45100</v>
       </c>
       <c r="G2" t="n">
-        <v>11040.08</v>
+        <v>11953.99</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>71916</v>
+        <v>95189</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Sophia Gonçalves</t>
+          <t>Agatha Santos</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>P&amp;D</t>
+          <t>Vendas</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -523,51 +523,51 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>45097</v>
+        <v>45094</v>
       </c>
       <c r="G3" t="n">
-        <v>7769.54</v>
+        <v>4576.88</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>91099</v>
+        <v>93615</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Isabella Rocha</t>
+          <t>Rodrigo Pereira</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Financeiro</t>
+          <t>P&amp;D</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>45098</v>
+        <v>45094</v>
       </c>
       <c r="G4" t="n">
-        <v>4739.35</v>
+        <v>8276.969999999999</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>58613</v>
+        <v>15610</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Heitor Silveira</t>
+          <t>João Carvalho</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -577,89 +577,89 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E5" t="n">
         <v>5</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>45083</v>
+        <v>45078</v>
       </c>
       <c r="G5" t="n">
-        <v>4213.25</v>
+        <v>7846.57</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>85115</v>
+        <v>41537</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Samuel Novaes</t>
+          <t>Marcelo da Rosa</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>P&amp;D</t>
+          <t>Financeiro</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>45088</v>
+        <v>45096</v>
       </c>
       <c r="G6" t="n">
-        <v>6672.79</v>
+        <v>7526.48</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>25862</v>
+        <v>59716</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Caio Rodrigues</t>
+          <t>Milena Cunha</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Marketing</t>
+          <t>TI</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>45082</v>
+        <v>45080</v>
       </c>
       <c r="G7" t="n">
-        <v>5953.48</v>
+        <v>8202.6</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>22994</v>
+        <v>84851</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Sophia Moreira</t>
+          <t>Dr. Rodrigo Nunes</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>TI</t>
+          <t>Engenharia</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -668,80 +668,80 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>45089</v>
+        <v>45105</v>
       </c>
       <c r="G8" t="n">
-        <v>4689.36</v>
+        <v>7424.98</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>96556</v>
+        <v>59317</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Lucas Gabriel Silva</t>
+          <t>Rafaela Lopes</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>TI</t>
+          <t>P&amp;D</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>45080</v>
+        <v>45087</v>
       </c>
       <c r="G9" t="n">
-        <v>8349.67</v>
+        <v>4835.2</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>55290</v>
+        <v>86073</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Maria Clara Santos</t>
+          <t>Maria Alice Moraes</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Jurídico</t>
+          <t>TI</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>45100</v>
+        <v>45105</v>
       </c>
       <c r="G10" t="n">
-        <v>5895.36</v>
+        <v>12406.79</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>61070</v>
+        <v>48642</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Vinicius Gomes</t>
+          <t>Ana Vitória Teixeira</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -751,17 +751,17 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>45099</v>
+        <v>45090</v>
       </c>
       <c r="G11" t="n">
-        <v>9844.85</v>
+        <v>7169.9</v>
       </c>
     </row>
   </sheetData>
